--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.2/avg_0.002_scores.xlsx
@@ -46,52 +46,61 @@
     <t>crap</t>
   </si>
   <si>
+    <t>disappointment</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>bottom</t>
+    <t>loose</t>
   </si>
   <si>
     <t>unfortunately</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>inches</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>pool</t>
   </si>
   <si>
     <t>tiny</t>
@@ -100,10 +109,10 @@
     <t>junk</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>guess</t>
@@ -115,219 +124,213 @@
     <t>small</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>short</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>might</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
-    <t>un</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>fl</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>light</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>actually</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>actually</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>parts</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
+    <t>2</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>way</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>made</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>even</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -340,57 +343,51 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>play</t>
@@ -761,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,7 +769,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
         <v>129</v>
@@ -830,13 +830,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K3">
-        <v>0.8214285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -880,13 +880,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8571428571428571</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K4">
-        <v>0.7692307692307693</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -930,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8181818181818182</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -948,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K5">
-        <v>0.7407407407407407</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -980,13 +980,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8148148148148148</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -998,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K6">
-        <v>0.6989247311827957</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1030,13 +1030,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8095238095238095</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1048,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1080,13 +1080,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K8">
-        <v>0.6037735849056604</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1130,13 +1130,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1148,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K9">
-        <v>0.59375</v>
+        <v>0.484375</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1180,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7605633802816901</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1198,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K10">
-        <v>0.3631147540983606</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="L10">
-        <v>443</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>443</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>777</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1230,13 +1230,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K11">
-        <v>0.3478260869565217</v>
+        <v>0.3795081967213115</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>463</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>463</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>45</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1280,13 +1280,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7272727272727273</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1298,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K12">
-        <v>0.3199426111908178</v>
+        <v>0.3242467718794835</v>
       </c>
       <c r="L12">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M12">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1330,13 +1330,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7204301075268817</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C13">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K13">
-        <v>0.2883817427385892</v>
+        <v>0.2904564315352697</v>
       </c>
       <c r="L13">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M13">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1380,13 +1380,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7184466019417476</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C14">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1398,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K14">
-        <v>0.2333333333333333</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>92</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1430,13 +1430,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6896551724137931</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K15">
-        <v>0.2232415902140673</v>
+        <v>0.225</v>
       </c>
       <c r="L15">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>254</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1480,13 +1480,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6842105263157895</v>
+        <v>0.7038834951456311</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1498,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K16">
-        <v>0.2228915662650602</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1551,16 +1551,16 @@
         <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17">
-        <v>0.1640625</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>107</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1580,13 +1580,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6554054054054054</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C18">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1598,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K18">
-        <v>0.1481481481481481</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>161</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1630,13 +1630,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.64</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1648,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K19">
-        <v>0.119047619047619</v>
+        <v>0.1130587204206836</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>111</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1680,13 +1680,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6041666666666666</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1698,31 +1698,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20">
-        <v>0.1169354838709677</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>219</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1730,13 +1730,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1748,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K21">
-        <v>0.1048951048951049</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>128</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1780,13 +1780,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1798,31 +1798,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22">
-        <v>0.1</v>
+        <v>0.05292479108635097</v>
       </c>
       <c r="L22">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1026</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1830,13 +1830,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5966386554621849</v>
+        <v>0.6</v>
       </c>
       <c r="C23">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1848,19 +1848,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K23">
-        <v>0.09677419354838709</v>
+        <v>0.05191434133679429</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>168</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1880,13 +1880,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5476190476190477</v>
+        <v>0.6</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1898,31 +1898,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K24">
-        <v>0.06128133704735376</v>
+        <v>0.04021447721179625</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>337</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1930,13 +1930,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5370370370370371</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1948,31 +1948,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K25">
-        <v>0.04805194805194805</v>
+        <v>0.02949061662198391</v>
       </c>
       <c r="L25">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1466</v>
+        <v>724</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1980,13 +1980,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5370370370370371</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1998,31 +1998,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>25</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K26">
-        <v>0.02002670226969292</v>
-      </c>
-      <c r="L26">
-        <v>15</v>
-      </c>
-      <c r="M26">
-        <v>18</v>
-      </c>
-      <c r="N26">
-        <v>0.83</v>
-      </c>
-      <c r="O26">
-        <v>0.17</v>
-      </c>
-      <c r="P26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>734</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2030,13 +2006,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5246376811594203</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C27">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2048,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2056,13 +2032,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5111111111111111</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2074,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2082,13 +2058,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4857142857142857</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2100,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2108,13 +2084,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4631578947368421</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C30">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="D30">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2126,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>51</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2134,13 +2110,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4488188976377953</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C31">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2152,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2160,13 +2136,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4285714285714285</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2178,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2186,13 +2162,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4210526315789473</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2204,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2212,13 +2188,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2230,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2238,13 +2214,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4146341463414634</v>
+        <v>0.453125</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2256,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2264,13 +2240,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4126984126984127</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2282,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2290,25 +2266,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4096385542168675</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C37">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>26</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>34</v>
-      </c>
-      <c r="D37">
-        <v>34</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2316,13 +2292,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4047619047619048</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2334,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2342,13 +2318,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3958333333333333</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2360,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2368,13 +2344,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3953488372093023</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2386,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2394,13 +2370,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3934426229508197</v>
+        <v>0.3984375</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2412,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2420,13 +2396,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3846153846153846</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2438,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2446,13 +2422,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3636363636363636</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2464,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2472,13 +2448,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3515625</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C44">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D44">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2490,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2498,13 +2474,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3514851485148515</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C45">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D45">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2516,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>131</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2524,13 +2500,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3483146067415731</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C46">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2542,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2550,13 +2526,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3448275862068966</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2568,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2576,13 +2552,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.34375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2602,13 +2578,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3364928909952606</v>
+        <v>0.3316831683168317</v>
       </c>
       <c r="C49">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D49">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2620,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2628,13 +2604,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3148148148148148</v>
+        <v>0.3270142180094787</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2646,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>37</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2654,13 +2630,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3134328358208955</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C51">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2672,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2680,13 +2656,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2991452991452991</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C52">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2698,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2706,13 +2682,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2898550724637681</v>
+        <v>0.2991452991452991</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2724,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2732,13 +2708,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2857142857142857</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="C54">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2750,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2758,13 +2734,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2857142857142857</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2776,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2784,7 +2760,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2833333333333333</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C56">
         <v>17</v>
@@ -2802,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2810,13 +2786,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2698412698412698</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2828,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2836,13 +2812,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2422680412371134</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C58">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D58">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2854,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>147</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2862,13 +2838,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2297297297297297</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2880,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>57</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2888,13 +2864,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2266666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2906,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2914,13 +2890,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2173913043478261</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2932,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2940,13 +2916,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2101449275362319</v>
+        <v>0.2229299363057325</v>
       </c>
       <c r="C62">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D62">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2958,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>218</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2966,13 +2942,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1978021978021978</v>
+        <v>0.2183544303797468</v>
       </c>
       <c r="C63">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D63">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2984,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>73</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2992,25 +2968,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1961367013372957</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C64">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="D64">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="E64">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>541</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3018,13 +2994,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1958762886597938</v>
+        <v>0.2106824925816024</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3036,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>78</v>
+        <v>532</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3044,13 +3020,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1942857142857143</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C66">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D66">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3062,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>141</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3070,13 +3046,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1928571428571429</v>
+        <v>0.1949152542372881</v>
       </c>
       <c r="C67">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D67">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3088,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3096,13 +3072,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.19</v>
+        <v>0.1885714285714286</v>
       </c>
       <c r="C68">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D68">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3114,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3122,13 +3098,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1855670103092784</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="C69">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3140,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>79</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3148,13 +3124,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1847133757961783</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="C70">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D70">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3166,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3174,13 +3150,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1835443037974684</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="C71">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D71">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3192,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>258</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3200,13 +3176,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.180379746835443</v>
+        <v>0.185</v>
       </c>
       <c r="C72">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D72">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3218,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>259</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3226,25 +3202,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1682242990654206</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D73">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E73">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>89</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3252,13 +3228,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1651982378854626</v>
+        <v>0.1784140969162996</v>
       </c>
       <c r="C74">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D74">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3270,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3278,13 +3254,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1610169491525424</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="C75">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3296,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3304,25 +3280,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1556195965417868</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="C76">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E76">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>293</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3330,13 +3306,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1542056074766355</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C77">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D77">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3348,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>181</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3356,13 +3332,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1420765027322404</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C78">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D78">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3374,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>157</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3382,13 +3358,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1310861423220974</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C79">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D79">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3400,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>232</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3408,25 +3384,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1209677419354839</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="C80">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D80">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>218</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3434,25 +3410,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1176470588235294</v>
+        <v>0.1354466858789625</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D81">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E81">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F81">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3460,25 +3436,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1151832460732984</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="C82">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>169</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3486,13 +3462,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1145038167938931</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C83">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D83">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3504,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>116</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3512,25 +3488,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1123287671232877</v>
+        <v>0.1255060728744939</v>
       </c>
       <c r="C84">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D84">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>324</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3538,13 +3514,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1103896103896104</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="C85">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D85">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3556,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3564,7 +3540,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1055900621118012</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="C86">
         <v>17</v>
@@ -3582,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3590,13 +3566,13 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1041666666666667</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3608,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>172</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3616,25 +3592,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.101063829787234</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="C88">
         <v>19</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E88">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3642,25 +3618,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09570957095709572</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="C89">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D89">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E89">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F89">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>548</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3668,13 +3644,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07605633802816901</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="C90">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D90">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3686,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3694,25 +3670,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07366071428571429</v>
+        <v>0.08072487644151564</v>
       </c>
       <c r="C91">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D91">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E91">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F91">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>415</v>
+        <v>558</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3720,13 +3696,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.06785714285714285</v>
+        <v>0.0694006309148265</v>
       </c>
       <c r="C92">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D92">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3738,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>261</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3746,25 +3722,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06645569620253164</v>
+        <v>0.06904231625835189</v>
       </c>
       <c r="C93">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D93">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E93">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>295</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3772,25 +3748,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.06542056074766354</v>
+        <v>0.06526806526806526</v>
       </c>
       <c r="C94">
         <v>28</v>
       </c>
       <c r="D94">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E94">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F94">
-        <v>0.8200000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3798,25 +3774,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.04587155963302753</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="C95">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D95">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E95">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>624</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3824,25 +3800,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.04439252336448598</v>
+        <v>0.0397196261682243</v>
       </c>
       <c r="C96">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D96">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E96">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F96">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3850,25 +3826,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.04166666666666666</v>
+        <v>0.03929024081115336</v>
       </c>
       <c r="C97">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D97">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E97">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="F97">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3876,25 +3852,51 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.03386004514672687</v>
+        <v>0.03595505617977528</v>
       </c>
       <c r="C98">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D98">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E98">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="F98">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>428</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.03384615384615385</v>
+      </c>
+      <c r="C99">
+        <v>22</v>
+      </c>
+      <c r="D99">
+        <v>27</v>
+      </c>
+      <c r="E99">
+        <v>0.19</v>
+      </c>
+      <c r="F99">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
